--- a/biology/Médecine/Réseau_d’hôpitaux_de_Jérusalem-Est/Réseau_d’hôpitaux_de_Jérusalem-Est.xlsx
+++ b/biology/Médecine/Réseau_d’hôpitaux_de_Jérusalem-Est/Réseau_d’hôpitaux_de_Jérusalem-Est.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_d%E2%80%99h%C3%B4pitaux_de_J%C3%A9rusalem-Est</t>
+          <t>Réseau_d’hôpitaux_de_Jérusalem-Est</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Réseau des hôpitaux de Jérusalem-Est, en anglais East Jerusalem Hospitals Network (EJHN) (en arabe : شبكة مستشفيات القدس الشرقية) est un réseau de six hôpitaux à Jérusalem-Est. Le réseau a été fondé en 1997 avec le soutien de l'homme politique palestinien Faisal Husseini[1]. Le réseau joue un rôle crucial dans le système de santé palestinien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Réseau des hôpitaux de Jérusalem-Est, en anglais East Jerusalem Hospitals Network (EJHN) (en arabe : شبكة مستشفيات القدس الشرقية) est un réseau de six hôpitaux à Jérusalem-Est. Le réseau a été fondé en 1997 avec le soutien de l'homme politique palestinien Faisal Husseini. Le réseau joue un rôle crucial dans le système de santé palestinien.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_d%E2%80%99h%C3%B4pitaux_de_J%C3%A9rusalem-Est</t>
+          <t>Réseau_d’hôpitaux_de_Jérusalem-Est</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Les six hôpitaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les six hôpitaux sont[2],[3]
-Hôpital Augusta Victoria, As-Sawana (Mont des Oliviers)[4],[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les six hôpitaux sont,
+Hôpital Augusta Victoria, As-Sawana (Mont des Oliviers),
 Hôpital Makassed, At-Tur (Mont des Oliviers)
 Groupe hospitalier ophtalmologique Saint-Jean (Cheikh Jarrah)
-Maternité du Croissant-Rouge (également appelée Hôpital de la Société palestinienne du Croissant-Rouge)[6]
-Centre Princesse Basma pour enfants handicapés[7]
+Maternité du Croissant-Rouge (également appelée Hôpital de la Société palestinienne du Croissant-Rouge)
+Centre Princesse Basma pour enfants handicapés
 Hôpital Saint-Joseph, Cheikh Jarrah, (dirigé par les Sœurs de Saint-Joseph de l'Apparition)</t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_d%E2%80%99h%C3%B4pitaux_de_J%C3%A9rusalem-Est</t>
+          <t>Réseau_d’hôpitaux_de_Jérusalem-Est</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,13 @@
           <t>Conférences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Première conférence annuelle : « Construire un réseau, améliorer les soins aux patients », 8 et 9 décembre 2011, à Jérusalem
 Deuxième conférence annuelle : 2e conférence annuelle des hôpitaux de Jérusalem-Est « Vers l'excellence en cas de crise », 30 janvier 2013, Jérusalem
-Troisième conférence, 29 janvier 2014, Jerusalem[8]</t>
+Troisième conférence, 29 janvier 2014, Jerusalem</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_d%E2%80%99h%C3%B4pitaux_de_J%C3%A9rusalem-Est</t>
+          <t>Réseau_d’hôpitaux_de_Jérusalem-Est</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Gestion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Abdel-Qader Husseini, président
 Walid Namour, secrétaire général</t>
